--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.947775</v>
+        <v>22.65656533333333</v>
       </c>
       <c r="H2">
-        <v>89.84332500000001</v>
+        <v>67.969696</v>
       </c>
       <c r="I2">
-        <v>0.9303126840830549</v>
+        <v>0.9268638682343595</v>
       </c>
       <c r="J2">
-        <v>0.930312684083055</v>
+        <v>0.9268638682343595</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.080865</v>
+        <v>0.445876</v>
       </c>
       <c r="N2">
-        <v>3.242595</v>
+        <v>1.337628</v>
       </c>
       <c r="O2">
-        <v>0.01136162287420497</v>
+        <v>0.004821482820471209</v>
       </c>
       <c r="P2">
-        <v>0.01136162287420497</v>
+        <v>0.00482148282047121</v>
       </c>
       <c r="Q2">
-        <v>32.369501825375</v>
+        <v>10.10201872456533</v>
       </c>
       <c r="R2">
-        <v>291.325516428375</v>
+        <v>90.91816852108801</v>
       </c>
       <c r="S2">
-        <v>0.01056986187164106</v>
+        <v>0.004468858217607455</v>
       </c>
       <c r="T2">
-        <v>0.01056986187164106</v>
+        <v>0.004468858217607456</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.947775</v>
+        <v>22.65656533333333</v>
       </c>
       <c r="H3">
-        <v>89.84332500000001</v>
+        <v>67.969696</v>
       </c>
       <c r="I3">
-        <v>0.9303126840830549</v>
+        <v>0.9268638682343595</v>
       </c>
       <c r="J3">
-        <v>0.930312684083055</v>
+        <v>0.9268638682343595</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>256.698074</v>
       </c>
       <c r="O3">
-        <v>0.8994360101470458</v>
+        <v>0.925268724816651</v>
       </c>
       <c r="P3">
-        <v>0.8994360101470458</v>
+        <v>0.9252687248166511</v>
       </c>
       <c r="Q3">
-        <v>2562.512054361784</v>
+        <v>1938.632228173945</v>
       </c>
       <c r="R3">
-        <v>23062.60848925605</v>
+        <v>17447.6900535655</v>
       </c>
       <c r="S3">
-        <v>0.8367567287608519</v>
+        <v>0.8575981494398343</v>
       </c>
       <c r="T3">
-        <v>0.8367567287608521</v>
+        <v>0.8575981494398344</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.947775</v>
+        <v>22.65656533333333</v>
       </c>
       <c r="H4">
-        <v>89.84332500000001</v>
+        <v>67.969696</v>
       </c>
       <c r="I4">
-        <v>0.9303126840830549</v>
+        <v>0.9268638682343595</v>
       </c>
       <c r="J4">
-        <v>0.930312684083055</v>
+        <v>0.9268638682343595</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.486086666666667</v>
+        <v>6.465044</v>
       </c>
       <c r="N4">
-        <v>25.45826</v>
+        <v>19.395132</v>
       </c>
       <c r="O4">
-        <v>0.08920236697874924</v>
+        <v>0.06990979236287771</v>
       </c>
       <c r="P4">
-        <v>0.08920236697874924</v>
+        <v>0.06990979236287773</v>
       </c>
       <c r="Q4">
-        <v>254.1394141238334</v>
+        <v>146.4756917688747</v>
       </c>
       <c r="R4">
-        <v>2287.2547271145</v>
+        <v>1318.281225919872</v>
       </c>
       <c r="S4">
-        <v>0.08298609345056188</v>
+        <v>0.06479686057691772</v>
       </c>
       <c r="T4">
-        <v>0.08298609345056188</v>
+        <v>0.06479686057691773</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>2.945626</v>
       </c>
       <c r="I5">
-        <v>0.03050146719708818</v>
+        <v>0.04016781697437198</v>
       </c>
       <c r="J5">
-        <v>0.03050146719708818</v>
+        <v>0.04016781697437198</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.080865</v>
+        <v>0.445876</v>
       </c>
       <c r="N5">
-        <v>3.242595</v>
+        <v>1.337628</v>
       </c>
       <c r="O5">
-        <v>0.01136162287420497</v>
+        <v>0.004821482820471209</v>
       </c>
       <c r="P5">
-        <v>0.01136162287420497</v>
+        <v>0.00482148282047121</v>
       </c>
       <c r="Q5">
-        <v>1.061274682163333</v>
+        <v>0.4377946461253333</v>
       </c>
       <c r="R5">
-        <v>9.551472139469999</v>
+        <v>3.940151815128</v>
       </c>
       <c r="S5">
-        <v>0.0003465461674032495</v>
+        <v>0.0001936684394777663</v>
       </c>
       <c r="T5">
-        <v>0.0003465461674032495</v>
+        <v>0.0001936684394777664</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.945626</v>
       </c>
       <c r="I6">
-        <v>0.03050146719708818</v>
+        <v>0.04016781697437198</v>
       </c>
       <c r="J6">
-        <v>0.03050146719708818</v>
+        <v>0.04016781697437198</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>256.698074</v>
       </c>
       <c r="O6">
-        <v>0.8994360101470458</v>
+        <v>0.925268724816651</v>
       </c>
       <c r="P6">
-        <v>0.8994360101470458</v>
+        <v>0.9252687248166511</v>
       </c>
       <c r="Q6">
         <v>84.01516899159157</v>
@@ -818,10 +818,10 @@
         <v>756.136520924324</v>
       </c>
       <c r="S6">
-        <v>0.02743411795937999</v>
+        <v>0.03716602479054579</v>
       </c>
       <c r="T6">
-        <v>0.02743411795937999</v>
+        <v>0.03716602479054579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.945626</v>
       </c>
       <c r="I7">
-        <v>0.03050146719708818</v>
+        <v>0.04016781697437198</v>
       </c>
       <c r="J7">
-        <v>0.03050146719708818</v>
+        <v>0.04016781697437198</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.486086666666667</v>
+        <v>6.465044</v>
       </c>
       <c r="N7">
-        <v>25.45826</v>
+        <v>19.395132</v>
       </c>
       <c r="O7">
-        <v>0.08920236697874924</v>
+        <v>0.06990979236287771</v>
       </c>
       <c r="P7">
-        <v>0.08920236697874924</v>
+        <v>0.06990979236287773</v>
       </c>
       <c r="Q7">
-        <v>8.332279174528889</v>
+        <v>6.347867232514666</v>
       </c>
       <c r="R7">
-        <v>74.99051257075999</v>
+        <v>57.130805092632</v>
       </c>
       <c r="S7">
-        <v>0.002720803070304942</v>
+        <v>0.00280812374434842</v>
       </c>
       <c r="T7">
-        <v>0.002720803070304942</v>
+        <v>0.002808123744348421</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.261435</v>
+        <v>0.8058883333333333</v>
       </c>
       <c r="H8">
-        <v>3.784305</v>
+        <v>2.417665</v>
       </c>
       <c r="I8">
-        <v>0.03918584871985675</v>
+        <v>0.03296831479126849</v>
       </c>
       <c r="J8">
-        <v>0.03918584871985676</v>
+        <v>0.03296831479126849</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.080865</v>
+        <v>0.445876</v>
       </c>
       <c r="N8">
-        <v>3.242595</v>
+        <v>1.337628</v>
       </c>
       <c r="O8">
-        <v>0.01136162287420497</v>
+        <v>0.004821482820471209</v>
       </c>
       <c r="P8">
-        <v>0.01136162287420497</v>
+        <v>0.00482148282047121</v>
       </c>
       <c r="Q8">
-        <v>1.363440941275</v>
+        <v>0.3593262665133333</v>
       </c>
       <c r="R8">
-        <v>12.270968471475</v>
+        <v>3.23393639862</v>
       </c>
       <c r="S8">
-        <v>0.0004452148351606599</v>
+        <v>0.0001589561633859879</v>
       </c>
       <c r="T8">
-        <v>0.00044521483516066</v>
+        <v>0.0001589561633859879</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.261435</v>
+        <v>0.8058883333333333</v>
       </c>
       <c r="H9">
-        <v>3.784305</v>
+        <v>2.417665</v>
       </c>
       <c r="I9">
-        <v>0.03918584871985675</v>
+        <v>0.03296831479126849</v>
       </c>
       <c r="J9">
-        <v>0.03918584871985676</v>
+        <v>0.03296831479126849</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>256.698074</v>
       </c>
       <c r="O9">
-        <v>0.8994360101470458</v>
+        <v>0.925268724816651</v>
       </c>
       <c r="P9">
-        <v>0.8994360101470458</v>
+        <v>0.9252687248166511</v>
       </c>
       <c r="Q9">
-        <v>107.9359783253967</v>
+        <v>68.95666100857889</v>
       </c>
       <c r="R9">
-        <v>971.42380492857</v>
+        <v>620.60994907721</v>
       </c>
       <c r="S9">
-        <v>0.03524516342681368</v>
+        <v>0.03050455058627093</v>
       </c>
       <c r="T9">
-        <v>0.03524516342681368</v>
+        <v>0.03050455058627093</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.261435</v>
+        <v>0.8058883333333333</v>
       </c>
       <c r="H10">
-        <v>3.784305</v>
+        <v>2.417665</v>
       </c>
       <c r="I10">
-        <v>0.03918584871985675</v>
+        <v>0.03296831479126849</v>
       </c>
       <c r="J10">
-        <v>0.03918584871985676</v>
+        <v>0.03296831479126849</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.486086666666667</v>
+        <v>6.465044</v>
       </c>
       <c r="N10">
-        <v>25.45826</v>
+        <v>19.395132</v>
       </c>
       <c r="O10">
-        <v>0.08920236697874924</v>
+        <v>0.06990979236287771</v>
       </c>
       <c r="P10">
-        <v>0.08920236697874924</v>
+        <v>0.06990979236287773</v>
       </c>
       <c r="Q10">
-        <v>10.70464673436667</v>
+        <v>5.210103534086667</v>
       </c>
       <c r="R10">
-        <v>96.34182060929999</v>
+        <v>46.89093180678</v>
       </c>
       <c r="S10">
-        <v>0.003495470457882413</v>
+        <v>0.00230480804161157</v>
       </c>
       <c r="T10">
-        <v>0.003495470457882414</v>
+        <v>0.00230480804161157</v>
       </c>
     </row>
   </sheetData>
